--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/亏损企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/亏损企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,367 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>142</v>
-      </c>
-      <c r="C2" t="n">
-        <v>267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>103</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>268</v>
-      </c>
-      <c r="G2" t="n">
-        <v>373</v>
-      </c>
-      <c r="H2" t="n">
-        <v>61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>127</v>
-      </c>
-      <c r="J2" t="n">
-        <v>128</v>
-      </c>
-      <c r="K2" t="n">
-        <v>579</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7635</v>
-      </c>
-      <c r="M2" t="n">
-        <v>123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>240</v>
-      </c>
-      <c r="O2" t="n">
-        <v>250</v>
-      </c>
-      <c r="P2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>654</v>
-      </c>
-      <c r="S2" t="n">
-        <v>196</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>96</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>543</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>383</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>315</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>540</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>189</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>447</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>453</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>289</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>360</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>168</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>170</v>
-      </c>
-      <c r="C3" t="n">
-        <v>260</v>
-      </c>
-      <c r="D3" t="n">
-        <v>142</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>297</v>
-      </c>
-      <c r="G3" t="n">
-        <v>441</v>
-      </c>
-      <c r="H3" t="n">
-        <v>72</v>
-      </c>
-      <c r="I3" t="n">
-        <v>136</v>
-      </c>
-      <c r="J3" t="n">
-        <v>140</v>
-      </c>
-      <c r="K3" t="n">
-        <v>614</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8669</v>
-      </c>
-      <c r="M3" t="n">
-        <v>150</v>
-      </c>
-      <c r="N3" t="n">
-        <v>239</v>
-      </c>
-      <c r="O3" t="n">
-        <v>280</v>
-      </c>
-      <c r="P3" t="n">
-        <v>118</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>851</v>
-      </c>
-      <c r="S3" t="n">
-        <v>186</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>105</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>21</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>684</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>491</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>341</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>624</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>230</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>525</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>476</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>311</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>384</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>168</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>66</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>168</v>
-      </c>
-      <c r="C4" t="n">
-        <v>272</v>
-      </c>
-      <c r="D4" t="n">
-        <v>145</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>320</v>
-      </c>
-      <c r="G4" t="n">
-        <v>417</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64</v>
-      </c>
-      <c r="I4" t="n">
-        <v>157</v>
-      </c>
-      <c r="J4" t="n">
-        <v>136</v>
-      </c>
-      <c r="K4" t="n">
-        <v>602</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8698</v>
-      </c>
-      <c r="M4" t="n">
-        <v>151</v>
-      </c>
-      <c r="N4" t="n">
-        <v>249</v>
-      </c>
-      <c r="O4" t="n">
-        <v>253</v>
-      </c>
-      <c r="P4" t="n">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>878</v>
-      </c>
-      <c r="S4" t="n">
-        <v>203</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>94</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>20</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>733</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>491</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>372</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>642</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>193</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>510</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>482</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>312</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>407</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>143</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
